--- a/SpeciesListWithYear.xlsx
+++ b/SpeciesListWithYear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/24207596_student_uwa_edu_au/Documents/Alfredo PhD/GitHub UWA/BibliometricAnalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{1FF1464F-BC43-4CC1-8FB9-13805ACDBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{961B96CB-5F39-40A9-B84F-1E508D427566}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{1FF1464F-BC43-4CC1-8FB9-13805ACDBF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77A3ABBD-E56C-4465-889E-73B00D3B95B4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6E11535-007A-4034-A565-9F806A9AFA70}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6E11535-007A-4034-A565-9F806A9AFA70}"/>
   </bookViews>
   <sheets>
     <sheet name="SpeciesListWithYear" sheetId="1" r:id="rId1"/>
@@ -7936,7 +7936,7 @@
   <dimension ref="A1:L679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
